--- a/数据整理/stocks/A股/深证主板/002444-巨星科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002444-巨星科技.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,1084 +512,1472 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>159.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>68.68</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.58</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1172</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0767</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0753</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2029</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1834</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>47.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9110</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6542</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>50.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6032</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4665</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4665</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3234</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>010187</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>嘉实核心成长混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>68.68</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2.58</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2098</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1813</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001756</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002222</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001688</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>30.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009164</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003000</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商丰德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>31.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009165</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>52.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>007266</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>嘉实新添益定期开放混合A</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>27.05</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1.07</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005949</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002178</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商丰德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>31.09</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>007267</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>嘉实新添益定期开放混合C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>27.05</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1.07</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009164</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中加聚庆六个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>23.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009165</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中加聚庆六个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>23.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519727</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>交银成长30混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.66</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005950</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161017</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富国中证500指数增强(LOF)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.15</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000478</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>86.69</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>000747</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>广发逆向策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>92.46</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003000</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商丰德灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>31.09</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003001</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>招商丰德灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>31.09</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>270025</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>广发行业领先混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>960001</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>广发行业领先混合H</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005188</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>海富通量化前锋股票C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005189</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>海富通量化前锋股票A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005633</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>86.69</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008033</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中加科盈混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>23.39</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008034</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中加科盈混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>23.39</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001688</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>嘉实新起点灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>27.10</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001756</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>嘉实策略优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>23.68</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002149</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>嘉实新优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>30.85</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>008778</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>嘉实中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>91.61</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>008779</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>嘉实中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>91.61</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>002178</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>嘉实新起点灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>27.10</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009004</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>海富通中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>002222</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>嘉实新趋势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>29.06</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>002624</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>广发优企精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>003292</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>嘉实优势成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>6.91</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>519034</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>海富通中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>005949</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>鑫元行业轮动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>79.31</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>005950</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>鑫元行业轮动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>79.31</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>010021</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>广发优企精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>161727</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>招商增荣灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>52.76</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>519778</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>交银施罗德经济新动力混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>005598</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>广发中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>91.71</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>673110</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>西部利得新润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>82.43</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>008955</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>交银施罗德创新领航混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>009983</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>永赢港股通品质生活慧选混合</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>80.44</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1589,7 +1987,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1610,15 +2008,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1630,26 +2038,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003292</t>
+          <t>007119</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实优势成长灵活配置混合</t>
+          <t>睿远成长价值混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.82</t>
+          <t>313.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.72</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.8153</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1668,15 +2086,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>124.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>89.37</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.41</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.4979</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1686,26 +2114,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009351</t>
+          <t>519778</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方誉丰18个月持有期混合A</t>
+          <t>交银施罗德经济新动力混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.02</t>
+          <t>67.10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.3009</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1714,26 +2152,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009352</t>
+          <t>010186</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方誉丰18个月持有期混合C</t>
+          <t>嘉实核心成长混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21.02</t>
+          <t>135.39</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.8740</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1742,25 +2190,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000595</t>
+          <t>008985</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实泰和混合</t>
+          <t>东方红启东三年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.57</t>
+          <t>139.56</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.6892</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1770,26 +2228,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>340001</t>
+          <t>008955</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>交银施罗德创新领航混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28.54</t>
+          <t>45.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.4094</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1798,26 +2266,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004536</t>
+          <t>000595</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
+          <t>嘉实泰和混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>64.31</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.2058</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1826,25 +2304,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>070002</t>
+          <t>002624</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实增长混合</t>
+          <t>广发优企精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>74.93</t>
+          <t>27.92</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5328</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1864,15 +2352,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>93.30</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>7.75</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3927</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1882,26 +2380,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008985</t>
+          <t>070002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东方红启东三年持有期混合</t>
+          <t>嘉实增长混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>98.56</t>
+          <t>33.29</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>74.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0520</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1910,26 +2418,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005290</t>
+          <t>007120</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>诺德新盛灵活配置混合A</t>
+          <t>睿远成长价值混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.36</t>
+          <t>34.03</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9562</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1938,26 +2456,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009710</t>
+          <t>910022</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>诺德新盛灵活配置混合C</t>
+          <t>东方红启航三年持有期混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.36</t>
+          <t>28.05</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9509</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1976,15 +2504,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>74.22</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>3.02</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7157</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1994,26 +2532,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010028</t>
+          <t>270025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华泰柏瑞创新升级混合C</t>
+          <t>广发行业领先混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>74.22</t>
+          <t>11.42</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6235</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -2022,26 +2570,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>000967</t>
+          <t>161017</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华泰柏瑞创新动力灵活配置混合</t>
+          <t>富国中证500指数增强(LOF)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>73.77</t>
+          <t>47.44</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5740</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -2050,26 +2608,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005977</t>
+          <t>340001</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中信保诚至兴灵活配置混合A</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>35.14</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
+          <t>28.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5376</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -2078,26 +2646,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>005978</t>
+          <t>010225</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中信保诚至兴灵活配置混合C</t>
+          <t>东方红启航三年持有期混合B</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>15.85</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5373</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -2106,26 +2684,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>007251</t>
+          <t>009636</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>广发睿享稳健增利混合</t>
+          <t>华泰柏瑞景气优选混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>31.96</t>
+          <t>17.58</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5256</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2134,26 +2722,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008033</t>
+          <t>003292</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中加科盈混合A</t>
+          <t>嘉实优势成长灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>25.69</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3654</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2162,26 +2760,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>008034</t>
+          <t>010126</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中加科盈混合C</t>
+          <t>平安价值成长混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>25.69</t>
+          <t>12.25</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3552</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2190,26 +2798,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>000431</t>
+          <t>070022</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鹏华品牌传承混合</t>
+          <t>嘉实领先成长混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>8.26</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3469</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2218,26 +2836,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>270025</t>
+          <t>007968</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>广发行业领先混合A</t>
+          <t>华泰柏瑞研究精选混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>86.29</t>
+          <t>11.29</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3387</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2246,26 +2874,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>960001</t>
+          <t>010187</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>广发行业领先混合H</t>
+          <t>嘉实核心成长混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>86.29</t>
+          <t>8.13</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2927</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2274,26 +2912,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>010126</t>
+          <t>001036</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>平安价值成长混合A</t>
+          <t>嘉实企业变革股票</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>85.15</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>9</v>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2336</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -2302,26 +2950,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>010127</t>
+          <t>673110</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>平安价值成长混合C</t>
+          <t>西部利得新润灵活配置混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>85.15</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>9</v>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1820</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -2330,26 +2988,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>010157</t>
+          <t>008373</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>汇安中证500指数增强A</t>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>89.09</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>5</v>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2358,26 +3026,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>010158</t>
+          <t>009351</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>汇安中证500指数增强C</t>
+          <t>南方誉丰18个月持有期混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>89.09</t>
+          <t>29.53</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>5</v>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -2386,26 +3064,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>000747</t>
+          <t>000967</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>广发逆向策略灵活配置混合</t>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>83.57</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>7</v>
+          <t>73.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -2414,26 +3102,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>010186</t>
+          <t>001756</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>嘉实核心成长混合A</t>
+          <t>嘉实策略优选灵活配置混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>8</v>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -2442,26 +3140,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>010187</t>
+          <t>010127</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>嘉实核心成长混合C</t>
+          <t>平安价值成长混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>8</v>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -2470,26 +3178,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>001036</t>
+          <t>010157</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>嘉实企业变革股票</t>
+          <t>汇安中证500指数增强A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>87.94</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>8</v>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -2498,26 +3216,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>007119</t>
+          <t>000747</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>睿远成长价值混合A</t>
+          <t>广发逆向策略灵活配置混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>90.64</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>10</v>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -2526,26 +3254,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>007120</t>
+          <t>002222</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>睿远成长价值混合C</t>
+          <t>嘉实新趋势灵活配置混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>90.64</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>10</v>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -2554,25 +3292,35 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>007266</t>
+          <t>000431</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>嘉实新添益定期开放混合A</t>
+          <t>鹏华品牌传承混合</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>26.53</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2582,26 +3330,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>007267</t>
+          <t>001688</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>嘉实新添益定期开放混合C</t>
+          <t>嘉实新起点灵活配置混合A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>26.53</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>10</v>
+          <t>23.85</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -2610,25 +3368,35 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>001183</t>
+          <t>008033</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>南方利淘灵活配置混合A</t>
+          <t>中加科盈混合A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>24.50</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2638,26 +3406,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>001504</t>
+          <t>001209</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>南方利淘灵活配置混合C</t>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>24.50</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>7</v>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -2666,26 +3444,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>001209</t>
+          <t>005189</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>前海开源一带一路主题精选灵活配置混合A</t>
+          <t>海富通量化前锋股票A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>85.92</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>8</v>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -2694,26 +3482,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>002080</t>
+          <t>001183</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>前海开源一带一路主题精选灵活配置混合C</t>
+          <t>南方利淘灵活配置混合A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>85.92</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>8</v>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -2722,26 +3520,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>515510</t>
+          <t>007251</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>嘉实中证500成长估值ETF</t>
+          <t>广发睿享稳健增利混合</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>98.96</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>2</v>
+          <t>31.96</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -2750,26 +3558,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>515590</t>
+          <t>570006</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>前海开源中证500等权重ETF</t>
+          <t>诺德中小盘混合</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>96.64</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>9</v>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -2778,26 +3596,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>070022</t>
+          <t>005977</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>嘉实领先成长混合</t>
+          <t>中信保诚至兴灵活配置混合A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>88.95</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>9</v>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2806,26 +3634,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>519034</t>
+          <t>010021</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>海富通中证500指数增强A</t>
+          <t>广发优企精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>87.12</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>1</v>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -2834,26 +3672,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>009004</t>
+          <t>010158</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>海富通中证500指数增强C</t>
+          <t>汇安中证500指数增强C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>87.12</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>1</v>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -2862,26 +3710,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>001688</t>
+          <t>010291</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>嘉实新起点灵活配置混合A</t>
+          <t>华泰柏瑞研究精选混合C</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>23.85</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>8</v>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -2890,26 +3748,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>002178</t>
+          <t>008778</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>嘉实新起点灵活配置混合C</t>
+          <t>嘉实中证500指数增强A</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>23.85</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>8</v>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2918,26 +3786,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>001756</t>
+          <t>005188</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>嘉实策略优选灵活配置混合</t>
+          <t>海富通量化前锋股票C</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>20.18</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>3</v>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="49">
@@ -2946,26 +3824,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>519778</t>
+          <t>008034</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>交银施罗德经济新动力混合</t>
+          <t>中加科盈混合C</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>93.70</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>7.90</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>5</v>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -2974,26 +3862,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>570006</t>
+          <t>007266</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>诺德中小盘混合</t>
+          <t>嘉实新添益定期开放混合A</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>90.45</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>4</v>
+          <t>26.53</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -3002,26 +3900,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>161017</t>
+          <t>007775</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>富国中证500指数增强(LOF)</t>
+          <t>汇安量化先锋混合A</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>91.64</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>4</v>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -3030,26 +3938,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>002222</t>
+          <t>009352</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>嘉实新趋势灵活配置混合</t>
+          <t>南方誉丰18个月持有期混合C</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>21.20</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>8</v>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="53">
@@ -3058,26 +3976,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>673110</t>
+          <t>519034</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>西部利得新润灵活配置混合</t>
+          <t>海富通中证500指数增强A</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>80.27</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>5</v>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -3086,26 +4014,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>008778</t>
+          <t>005978</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>嘉实中证500指数增强A</t>
+          <t>中信保诚至兴灵活配置混合C</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>4</v>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -3124,15 +4062,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>91.90</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>2.37</t>
         </is>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3142,26 +4090,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>005189</t>
+          <t>007776</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>海富通量化前锋股票A</t>
+          <t>汇安量化先锋混合C</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>91.93</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>9</v>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -3170,26 +4128,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>005188</t>
+          <t>002178</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>海富通量化前锋股票C</t>
+          <t>嘉实新起点灵活配置混合C</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>91.93</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>9</v>
+          <t>23.85</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -3198,26 +4166,36 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>008955</t>
+          <t>005290</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>交银施罗德创新领航混合</t>
+          <t>诺德新盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>7.49</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>6</v>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -3226,25 +4204,35 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>002624</t>
+          <t>002080</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>广发优企精选灵活配置混合A</t>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>86.55</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3254,26 +4242,36 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>010021</t>
+          <t>004536</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>广发优企精选灵活配置混合C</t>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>86.55</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>8</v>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -3282,26 +4280,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>007775</t>
+          <t>010028</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>汇安量化先锋混合A</t>
+          <t>华泰柏瑞创新升级混合C</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>8</v>
+          <t>74.22</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="62">
@@ -3310,26 +4318,36 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>007776</t>
+          <t>515510</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>汇安量化先锋混合C</t>
+          <t>嘉实中证500成长估值ETF</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>8</v>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -3338,26 +4356,36 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>007968</t>
+          <t>515590</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>华泰柏瑞研究精选混合A</t>
+          <t>前海开源中证500等权重ETF</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>73.62</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>10</v>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="64">
@@ -3366,25 +4394,35 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>010291</t>
+          <t>008374</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>华泰柏瑞研究精选混合C</t>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>73.62</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3394,26 +4432,36 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>008373</t>
+          <t>009004</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>华泰柏瑞景气回报一年持有期混合A</t>
+          <t>海富通中证500指数增强C</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>74.50</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>10</v>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -3422,26 +4470,36 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>008374</t>
+          <t>001504</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>华泰柏瑞景气回报一年持有期混合C</t>
+          <t>南方利淘灵活配置混合C</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>74.50</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>10</v>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -3450,26 +4508,36 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>910022</t>
+          <t>009710</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>东方红启航三年持有期混合A</t>
+          <t>诺德新盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>9</v>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -3478,25 +4546,35 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>010225</t>
+          <t>960001</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>东方红启航三年持有期混合B</t>
+          <t>广发行业领先混合H</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
         <v>9</v>
       </c>
     </row>
@@ -3506,25 +4584,35 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>009636</t>
+          <t>007267</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>华泰柏瑞景气优选混合</t>
+          <t>嘉实新添益定期开放混合C</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>74.61</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
+          <t>26.53</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002444-巨星科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002444-巨星科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4619,4 +4620,1122 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0662</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>262.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>48.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.0582</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>166.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.9361</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>45.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.1824</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6653</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6149</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4490</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6558</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>61.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4092</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4086</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>48.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010458</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001947</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根安鑫回报混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002845</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根安鑫回报混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002444-巨星科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002444-巨星科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5738,4 +5739,1010 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>217.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>48.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0434</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.7664</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>111.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8524</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.2975</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>74.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2123</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3560</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2861</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1743</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8073</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7430</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6823</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>61.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>48.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>68.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010458</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>61.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002444-巨星科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002444-巨星科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6745,4 +6746,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>68</v>
+      </c>
+      <c r="D4" t="n">
+        <v>47.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002444-巨星科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002444-巨星科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6754,7 +6755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6765,17 +6766,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6785,14 +6806,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.98</v>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>208.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>51.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.7069</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -6801,14 +6844,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>28.34</v>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>126.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.8758</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -6817,14 +6882,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>68</v>
-      </c>
-      <c r="D4" t="n">
-        <v>47.73</v>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.3417</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -6833,13 +6920,911 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.2900</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>106.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.0405</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.5108</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.0238</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.8221</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013426</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>66.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>63.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.5855</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>148.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>55.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0501</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>48.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.8578</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1256</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>31.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0612</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8973</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3487</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013427</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>63.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3444</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2252</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>55.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>51.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>45.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>28.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>68</v>
+      </c>
+      <c r="D5" t="n">
+        <v>47.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>39</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>18.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002444-巨星科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002444-巨星科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7723,7 +7724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7734,17 +7735,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7754,14 +7775,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>45.78</v>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5491</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -7770,14 +7813,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>26.98</v>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8110</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -7786,14 +7851,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>28.34</v>
+          <t>013247</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银瑞卓三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0571</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -7802,14 +7889,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>68</v>
-      </c>
-      <c r="D5" t="n">
-        <v>47.73</v>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6974</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -7818,13 +7927,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>45.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>68</v>
+      </c>
+      <c r="D6" t="n">
+        <v>47.73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>39</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>18.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002444-巨星科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002444-巨星科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8046,7 +8047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8057,17 +8058,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8077,14 +8098,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.19</v>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4324</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -8093,14 +8136,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>45.78</v>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4308</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -8109,14 +8174,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>26.98</v>
+          <t>013247</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银瑞卓三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4670</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -8125,14 +8212,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>28</v>
-      </c>
-      <c r="D5" t="n">
-        <v>28.34</v>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9309</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -8141,14 +8250,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>68</v>
-      </c>
-      <c r="D6" t="n">
-        <v>47.73</v>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3389</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -8157,13 +8288,221 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>014096</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>63.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1567</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>45.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>28</v>
+      </c>
+      <c r="D6" t="n">
+        <v>28.34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>68</v>
+      </c>
+      <c r="D7" t="n">
+        <v>47.73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>39</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>18.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002444-巨星科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002444-巨星科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>8.81</v>
+        <v>13.99</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>6.19</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>45.78</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>26.98</v>
+        <v>45.78</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>28.34</v>
+        <v>26.98</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>47.73</v>
+        <v>28.34</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>68</v>
+      </c>
+      <c r="D8" t="n">
+        <v>47.73</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>39</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>18.36</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,31 +678,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银施罗德经济新动力混合</t>
+          <t>交银施罗德经济新动力混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>47.54</t>
+          <t>41.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>63.85</t>
+          <t>68.18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.4324</t>
+          <t>3.6955</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -704,26 +721,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>34.14</t>
+          <t>29.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>66.79</t>
+          <t>69.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>8.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.4308</t>
+          <t>2.5971</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013247</t>
+          <t>014834</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>交银瑞卓三年持有期混合</t>
+          <t>汇添富盈鑫灵活配置混合D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20.46</t>
+          <t>45.43</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>63.55</t>
+          <t>91.88</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.17</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.4670</t>
+          <t>1.7672</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -770,32 +787,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519727</t>
+          <t>013247</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>交银成长30混合</t>
+          <t>交银瑞卓三年持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13.26</t>
+          <t>19.44</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>64.63</t>
+          <t>67.60</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>8.94</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.9309</t>
+          <t>1.7379</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>590008</t>
+          <t>519727</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中邮战略新兴产业混合</t>
+          <t>交银成长30混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>11.65</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>63.06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3389</t>
+          <t>1.0403</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>014096</t>
+          <t>002420</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>交银施罗德经济新动力混合C</t>
+          <t>汇添富盈鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>22.62</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>63.85</t>
+          <t>91.88</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1567</t>
+          <t>0.8799</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -884,35 +901,567 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>014833</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5808</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3503</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2849</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2193</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010981</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2117</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方产业智选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1793</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>003292</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>嘉实优势成长灵活配置混合</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>74.77</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0504</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010982</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014096</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>68.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012665</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保裕祥混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>34.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012666</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国寿安保裕祥混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>34.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>5</v>
       </c>
     </row>
@@ -988,22 +1537,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>45.93</t>
+          <t>47.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>63.82</t>
+          <t>63.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.5491</t>
+          <t>3.4324</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1026,22 +1575,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>32.34</t>
+          <t>34.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>65.83</t>
+          <t>66.79</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8110</t>
+          <t>2.4308</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1064,22 +1613,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19.29</t>
+          <t>20.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>60.51</t>
+          <t>63.55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>7.17</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0571</t>
+          <t>1.4670</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1102,22 +1651,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.41</t>
+          <t>13.26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>64.16</t>
+          <t>64.63</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6974</t>
+          <t>0.9309</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1130,36 +1679,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003292</t>
+          <t>590008</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实优势成长灵活配置混合</t>
+          <t>中邮战略新兴产业混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>89.79</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0513</t>
+          <t>0.3389</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1168,36 +1717,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002630</t>
+          <t>014096</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>江信瑞福灵活配置混合A</t>
+          <t>交银施罗德经济新动力混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>43.17</t>
+          <t>63.85</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0130</t>
+          <t>0.1567</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1206,36 +1755,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002631</t>
+          <t>003292</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>江信瑞福灵活配置混合C</t>
+          <t>嘉实优势成长灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>43.17</t>
+          <t>74.77</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0125</t>
+          <t>0.0504</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1244,6 +1793,328 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5491</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8110</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013247</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银瑞卓三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0571</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6974</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2211,7 +3082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3217,7 +4088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4335,7 +5206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6975,7 +7846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002444-巨星科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002444-巨星科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>13.99</v>
+        <v>11.23</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>8.81</v>
+        <v>13.99</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>6.19</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>45.78</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>26.98</v>
+        <v>45.78</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>28.34</v>
+        <v>26.98</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
-        <v>47.73</v>
+        <v>28.34</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1566 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>68</v>
+      </c>
+      <c r="D9" t="n">
+        <v>47.73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>39</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>18.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>159.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1172</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0767</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0753</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2029</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1834</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>47.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9110</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6542</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>50.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6032</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4665</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4665</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3234</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>68.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2098</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1813</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001756</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002222</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001688</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>30.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009164</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003000</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商丰德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>31.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009165</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>52.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007266</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实新添益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>27.05</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005949</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002178</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商丰德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>31.09</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007267</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实新添益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>27.05</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005950</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2170,670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6565</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4865</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013247</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银瑞卓三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7298</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012526</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发盛锦混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0512</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0290</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4822</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3128</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>39.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1901</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012527</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发盛锦混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014096</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>65.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>39.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1462,328 +3679,6 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519778</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银施罗德经济新动力混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>47.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>63.85</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.4324</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008955</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银施罗德创新领航混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>34.14</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>66.79</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.4308</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>013247</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银瑞卓三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20.46</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>63.55</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.17</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.4670</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519727</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>交银成长30混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>13.26</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>64.63</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.02</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.9309</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>590008</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中邮战略新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.79</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3389</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>014096</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>交银施罗德经济新动力混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>63.85</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1567</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003292</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实优势成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>74.77</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0504</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1859,22 +3754,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>45.93</t>
+          <t>47.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>63.82</t>
+          <t>63.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.5491</t>
+          <t>3.4324</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1897,22 +3792,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>32.34</t>
+          <t>34.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>65.83</t>
+          <t>66.79</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8110</t>
+          <t>2.4308</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1935,22 +3830,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19.29</t>
+          <t>20.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>60.51</t>
+          <t>63.55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>7.17</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0571</t>
+          <t>1.4670</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1973,22 +3868,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.41</t>
+          <t>13.26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>64.16</t>
+          <t>64.63</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6974</t>
+          <t>0.9309</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2001,36 +3896,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003292</t>
+          <t>590008</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实优势成长灵活配置混合</t>
+          <t>中邮战略新兴产业混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>89.79</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0513</t>
+          <t>0.3389</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2039,36 +3934,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002630</t>
+          <t>014096</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>江信瑞福灵活配置混合A</t>
+          <t>交银施罗德经济新动力混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>43.17</t>
+          <t>63.85</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0130</t>
+          <t>0.1567</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -2077,36 +3972,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002631</t>
+          <t>003292</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>江信瑞福灵活配置混合C</t>
+          <t>嘉实优势成长灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>43.17</t>
+          <t>74.77</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0125</t>
+          <t>0.0504</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2115,6 +4010,328 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5491</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8110</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013247</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银瑞卓三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0571</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6974</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3082,7 +5299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4088,7 +6305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5206,7 +7423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7844,1540 +10061,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010186</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实核心成长混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>159.58</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>68.68</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.1172</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519778</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银施罗德经济新动力混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>76.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4.0767</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008955</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银施罗德创新领航混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>59.14</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.0753</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519727</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>交银成长30混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>22.40</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.66</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.2029</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002624</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发优企精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>29.96</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.1834</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000478</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>47.95</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.69</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.9110</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009983</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>永赢港股通品质生活慧选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>21.88</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>80.44</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6542</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161017</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富国中证500指数增强(LOF)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>50.69</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.15</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.6032</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>270025</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发行业领先混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>12.71</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4665</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>960001</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>广发行业领先混合H</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>12.71</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4665</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003292</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>嘉实优势成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.91</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3234</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010187</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉实核心成长混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>8.13</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>68.68</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2098</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>673110</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>西部利得新润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>82.43</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1813</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005598</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>广发中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>91.71</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1548</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001756</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>嘉实策略优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>23.68</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1011</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002222</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>嘉实新趋势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>29.06</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0842</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001688</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>嘉实新起点灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>7.18</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>27.10</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0833</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002149</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>嘉实新优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>30.85</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0762</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>000747</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>广发逆向策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.46</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0561</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>008033</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中加科盈混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>23.39</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0498</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>009164</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中加聚庆六个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>23.00</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0490</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005189</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>海富通量化前锋股票A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0435</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>003000</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>招商丰德灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>31.09</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0308</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009165</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中加聚庆六个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>23.00</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0240</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>161727</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>招商增荣灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>52.76</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0227</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>005633</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>86.69</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0192</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>005188</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>海富通量化前锋股票C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0160</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>010021</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>广发优企精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0158</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>008778</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>嘉实中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>91.61</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0132</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>008034</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>中加科盈混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>23.39</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0126</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>007266</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>嘉实新添益定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>27.05</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>519034</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>海富通中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0095</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>005949</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>鑫元行业轮动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>79.31</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>002178</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>嘉实新起点灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>27.10</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>008779</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>嘉实中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>91.61</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>003001</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>招商丰德灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>31.09</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>009004</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>海富通中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>007267</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>嘉实新添益定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>27.05</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>005950</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>鑫元行业轮动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>79.31</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>